--- a/Bidding/B-PRO/Files/CC Ika - Amin.xlsx
+++ b/Bidding/B-PRO/Files/CC Ika - Amin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\UKM Bridge\BBO Script\Bidding\B-PRO\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB5735-02B4-48ED-8682-D46A18B61482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6566B27E-4287-4D0B-BE3F-BDD9EAAFCEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outside" sheetId="1" r:id="rId1"/>
@@ -349,21 +349,12 @@
     <t>11-16 hcp</t>
   </si>
   <si>
-    <t>1NT : 6-10 ; 2NT : INV ; 3NT : To Play</t>
-  </si>
-  <si>
     <t>1♥️</t>
   </si>
   <si>
-    <t>single raise : 6+hcp, natural, 1NT : F1 ;2NT: GF</t>
-  </si>
-  <si>
     <t>1♠️</t>
   </si>
   <si>
-    <t>1NT : F1; 2NT:FG</t>
-  </si>
-  <si>
     <t>1NT</t>
   </si>
   <si>
@@ -373,9 +364,6 @@
     <t>11-14 HCP</t>
   </si>
   <si>
-    <t xml:space="preserve">3C=Trf D; 3D=Art 5+M ; 3H= ART.SPL H (54/64 minors); </t>
-  </si>
-  <si>
     <t>3S= ART.SPL S (54/64 minors); 4C=Majors ; 4D/H/4NT/5C :Trf ; 4S=Minors</t>
   </si>
   <si>
@@ -598,12 +586,6 @@
     <t>PRECISION WEAK NT</t>
   </si>
   <si>
-    <t>over 1C STR : Natural</t>
-  </si>
-  <si>
-    <t>vs STR : Natural</t>
-  </si>
-  <si>
     <t>vs Weak : Natural</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>1NT opening : 11-14 BAL</t>
   </si>
   <si>
-    <t>single raise : 6+ hcp natural, 2m=FG :</t>
-  </si>
-  <si>
     <t>2nd Position : 15-17 BAL</t>
   </si>
   <si>
@@ -632,6 +611,27 @@
   </si>
   <si>
     <t>Ika Ayu Puspitasari - Muhammad Amin</t>
+  </si>
+  <si>
+    <t>single raise : 6+hcp, natural, 1NT : SF ;2NT: GF</t>
+  </si>
+  <si>
+    <t>1NT : SF; 2NT:FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C=Trf D; 3D=Ask 5+M ; 3H= ART.SPL H (54/64 minors); </t>
+  </si>
+  <si>
+    <t>vs STR : Multilandy X:STR, 2♧:MM, 2◇:1 suit M, 2♡:H+m, 2♤ : S+m</t>
+  </si>
+  <si>
+    <t>over 1C STR : Natural, X : MM, NT : mm</t>
+  </si>
+  <si>
+    <t>single raise : 6+ hcp natural, 1NT : 0-8 ; 2m=9+ :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2H : 5S4H 6-9hcp; 2S : 5S5C inv; 2NT : 5H5C inv ; 3NT : To Play</t>
   </si>
 </sst>
 </file>
@@ -3345,8 +3345,8 @@
   </sheetPr>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -3437,7 +3437,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="142"/>
       <c r="K4" s="120" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L4" s="121"/>
       <c r="M4" s="5"/>
@@ -3511,7 +3511,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="114" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A11" s="51" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B11" s="142"/>
       <c r="C11" s="44" t="s">
@@ -3592,7 +3592,7 @@
       <c r="I11" s="128"/>
       <c r="J11" s="142"/>
       <c r="K11" s="151" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L11" s="152"/>
       <c r="M11" s="5"/>
@@ -3606,7 +3606,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="129" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E12" s="130"/>
       <c r="F12" s="170"/>
@@ -3629,12 +3629,12 @@
         <v>31</v>
       </c>
       <c r="D13" s="171" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E13" s="162"/>
       <c r="F13" s="172"/>
       <c r="G13" s="171" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H13" s="162"/>
       <c r="I13" s="145"/>
@@ -3654,18 +3654,18 @@
         <v>34</v>
       </c>
       <c r="D14" s="171" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="172"/>
       <c r="G14" s="171" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H14" s="162"/>
       <c r="I14" s="145"/>
       <c r="J14" s="142"/>
       <c r="K14" s="149" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L14" s="150"/>
       <c r="M14" s="5"/>
@@ -3679,12 +3679,12 @@
         <v>35</v>
       </c>
       <c r="D15" s="171" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="162"/>
       <c r="F15" s="172"/>
       <c r="G15" s="171" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H15" s="162"/>
       <c r="I15" s="145"/>
@@ -3704,12 +3704,12 @@
         <v>10</v>
       </c>
       <c r="D16" s="171" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" s="162"/>
       <c r="F16" s="172"/>
       <c r="G16" s="171" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H16" s="162"/>
       <c r="I16" s="145"/>
@@ -3729,12 +3729,12 @@
         <v>9</v>
       </c>
       <c r="D17" s="171" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E17" s="162"/>
       <c r="F17" s="172"/>
       <c r="G17" s="171" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H17" s="162"/>
       <c r="I17" s="145"/>
@@ -3825,22 +3825,22 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="13.8">
       <c r="A22" s="56" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B22" s="142"/>
       <c r="C22" s="119" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D22" s="143" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E22" s="143"/>
       <c r="F22" s="143" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G22" s="143"/>
       <c r="H22" s="184" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I22" s="184"/>
       <c r="J22" s="142"/>
@@ -3852,18 +3852,18 @@
       <c r="A23" s="52"/>
       <c r="B23" s="142"/>
       <c r="C23" s="119" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E23" s="169"/>
       <c r="F23" s="169" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23" s="169"/>
       <c r="H23" s="184" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I23" s="184"/>
       <c r="J23" s="142"/>
@@ -3875,16 +3875,16 @@
       <c r="A24" s="52"/>
       <c r="B24" s="142"/>
       <c r="C24" s="119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E24" s="169"/>
       <c r="F24" s="169"/>
       <c r="G24" s="169"/>
       <c r="H24" s="185" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I24" s="185"/>
       <c r="J24" s="142"/>
@@ -3913,18 +3913,18 @@
       </c>
       <c r="B26" s="142"/>
       <c r="C26" s="119" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E26" s="169"/>
       <c r="F26" s="143" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G26" s="143"/>
       <c r="H26" s="185" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I26" s="185"/>
       <c r="J26" s="142"/>
@@ -3936,18 +3936,18 @@
       <c r="A27" s="110"/>
       <c r="B27" s="142"/>
       <c r="C27" s="119" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E27" s="169"/>
       <c r="F27" s="169" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G27" s="169"/>
       <c r="H27" s="185" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I27" s="185"/>
       <c r="J27" s="142"/>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A28" s="111" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B28" s="142"/>
       <c r="C28" s="119" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G28" s="169"/>
       <c r="H28" s="185" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I28" s="185"/>
       <c r="J28" s="142"/>
@@ -3982,11 +3982,11 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A29" s="111" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B29" s="142"/>
       <c r="C29" s="144" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D29" s="162"/>
       <c r="E29" s="162"/>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A38" s="56" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B38" s="142"/>
       <c r="C38" s="155" t="s">
@@ -4167,7 +4167,7 @@
       <c r="A39" s="52"/>
       <c r="B39" s="142"/>
       <c r="C39" s="148" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D39" s="130"/>
       <c r="E39" s="130"/>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="43" spans="1:14" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" s="142"/>
       <c r="C43" s="149"/>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="44" spans="1:14" s="1" customFormat="1" ht="14.1" customHeight="1">
       <c r="A44" s="58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B44" s="142"/>
       <c r="C44" s="149"/>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="45" spans="1:14" ht="14.1" customHeight="1">
       <c r="A45" s="59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B45" s="142"/>
       <c r="C45" s="149"/>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="46" spans="1:14" ht="14.1" customHeight="1" thickBot="1">
       <c r="A46" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="142"/>
       <c r="C46" s="201"/>
@@ -4620,8 +4620,8 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -4715,7 +4715,7 @@
         <v>85</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="224"/>
@@ -4727,14 +4727,14 @@
       <c r="D6" s="219"/>
       <c r="E6" s="211"/>
       <c r="F6" s="64" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="225"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A7" s="240" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="237"/>
       <c r="C7" s="210">
@@ -4745,7 +4745,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G7" s="92"/>
       <c r="H7" s="94"/>
@@ -4757,14 +4757,14 @@
       <c r="D8" s="219"/>
       <c r="E8" s="219"/>
       <c r="F8" s="62" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A9" s="240" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="237"/>
       <c r="C9" s="210">
@@ -4775,7 +4775,7 @@
         <v>85</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G9" s="210"/>
       <c r="H9" s="210"/>
@@ -4787,21 +4787,21 @@
       <c r="D10" s="219"/>
       <c r="E10" s="219"/>
       <c r="F10" s="62" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="G10" s="219"/>
       <c r="H10" s="219"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A11" s="210" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="237"/>
       <c r="C11" s="210"/>
       <c r="D11" s="217"/>
       <c r="E11" s="67"/>
       <c r="F11" s="61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="210"/>
@@ -4812,10 +4812,10 @@
       <c r="C12" s="219"/>
       <c r="D12" s="217"/>
       <c r="E12" s="69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="219"/>
@@ -4827,14 +4827,14 @@
       <c r="D13" s="218"/>
       <c r="E13" s="69"/>
       <c r="F13" s="70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="71"/>
       <c r="H13" s="211"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A14" s="210" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="237"/>
       <c r="C14" s="210">
@@ -4842,10 +4842,10 @@
       </c>
       <c r="D14" s="222"/>
       <c r="E14" s="226" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="81"/>
       <c r="H14" s="69"/>
@@ -4857,23 +4857,23 @@
       <c r="D15" s="223"/>
       <c r="E15" s="211"/>
       <c r="F15" s="83" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A16" s="210" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" s="229"/>
       <c r="C16" s="210"/>
       <c r="D16" s="210"/>
       <c r="E16" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="83" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>101</v>
       </c>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A18" s="67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="67">
@@ -4898,17 +4898,17 @@
       </c>
       <c r="D18" s="67"/>
       <c r="E18" s="102" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A19" s="67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="67">
@@ -4916,33 +4916,33 @@
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A20" s="115" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A21" s="115" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B21" s="68"/>
       <c r="C21" s="67">
@@ -4950,17 +4950,17 @@
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="67" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A22" s="117" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" s="89"/>
       <c r="C22" s="104">
@@ -4968,17 +4968,17 @@
       </c>
       <c r="D22" s="90"/>
       <c r="E22" s="104" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" s="90"/>
       <c r="H22" s="91"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A23" s="101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="101">
@@ -4986,17 +4986,17 @@
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="101" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" s="88"/>
       <c r="H23" s="76"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1">
       <c r="A24" s="105" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" s="98"/>
       <c r="C24" s="105">
@@ -5004,55 +5004,55 @@
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="105" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="210"/>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A25" s="106" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B25" s="100"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
       <c r="E25" s="106" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" s="77"/>
       <c r="H25" s="211"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A26" s="72" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F26" s="75"/>
       <c r="G26" s="220" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H26" s="221"/>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A27" s="72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
       <c r="E27" s="74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F27" s="75"/>
       <c r="G27" s="78"/>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A28" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B28" s="73"/>
       <c r="C28" s="74">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F28" s="75"/>
       <c r="G28" s="79"/>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="29" spans="1:8" ht="21.9" customHeight="1" thickBot="1">
       <c r="A29" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B29" s="73"/>
       <c r="C29" s="74">
@@ -5084,33 +5084,33 @@
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="80"/>
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A30" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
       <c r="E30" s="74" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G30" s="79"/>
       <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="21.9" customHeight="1" thickBot="1">
       <c r="A31" s="74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B31" s="73"/>
       <c r="C31" s="74">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D31" s="74"/>
       <c r="E31" s="74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F31" s="75"/>
       <c r="G31" s="79"/>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1" thickBot="1">
       <c r="A32" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B32" s="73"/>
       <c r="C32" s="74">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F32" s="75"/>
       <c r="G32" s="79"/>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B33" s="73"/>
       <c r="C33" s="74">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F33" s="75" t="s">
         <v>52</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A34" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="23">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>52</v>
